--- a/ALERTAS 03-02-2025-2.xlsx
+++ b/ALERTAS 03-02-2025-2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Downloads\ALERTAS EN WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC31B44-0FDF-4276-9E64-03FB1AAF3F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D878745-F5E8-4B73-83A3-64589E216136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DETALLE DE ACTUALIZACIÓN " sheetId="1" r:id="rId1"/>
+    <sheet name="DETALLE DE ACTUALIZACIÓN" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DETALLE DE ACTUALIZACIÓN '!$A$1:$E$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DETALLE DE ACTUALIZACIÓN'!$A$1:$E$57</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -585,7 +585,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
